--- a/testes.xlsx
+++ b/testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glauc\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\github\rinha-de-backend-2023-glaucofilho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AF72C4-67B9-460D-8358-1BABA06C0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB22777-8AF5-4E37-B30E-44EA8D011B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="3450" windowWidth="38700" windowHeight="15435" xr2:uid="{BD32FFE9-A966-44D5-80D3-76E809D8F576}"/>
+    <workbookView xWindow="21195" yWindow="4485" windowWidth="38700" windowHeight="15435" xr2:uid="{F4031598-EC8A-4338-8284-0C58DE1A48A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>API2</t>
+  </si>
   <si>
     <t>API1</t>
   </si>
   <si>
-    <t>API2</t>
+    <t>REDIS</t>
   </si>
   <si>
     <t>NGINX</t>
@@ -50,28 +53,19 @@
     <t>POSTGRES</t>
   </si>
   <si>
-    <t>REDIS</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DEPLY</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>RAM</t>
   </si>
   <si>
     <t>RESTANTE</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>CONTAGEM</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -422,114 +416,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3528E2A-BB7D-46B2-9733-6AB433787B1C}">
-  <dimension ref="A2:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3258BB8-F93A-4DD6-9797-0E11F608A12F}">
+  <dimension ref="D5:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f>E6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.06</v>
+      </c>
+      <c r="H6">
+        <v>0.15</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <f>SUM(E6:I6)</f>
+        <v>1.41</v>
+      </c>
+      <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <f>E7</f>
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <f>SUM(E7:I7)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <f>1.5-SUM(C3:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.85</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
-      <c r="I3">
-        <v>15897</v>
-      </c>
-      <c r="J3">
-        <v>21847</v>
-      </c>
-      <c r="K3">
-        <v>15074</v>
-      </c>
-      <c r="L3">
-        <v>47242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f>3-SUM(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.25</v>
-      </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0.49</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\github\rinha-de-backend-2023-glaucofilho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB22777-8AF5-4E37-B30E-44EA8D011B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39152141-97BF-4B6F-8773-1290CAC77F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21195" yWindow="4485" windowWidth="38700" windowHeight="15435" xr2:uid="{F4031598-EC8A-4338-8284-0C58DE1A48A9}"/>
+    <workbookView xWindow="12615" yWindow="4785" windowWidth="38700" windowHeight="15435" xr2:uid="{F4031598-EC8A-4338-8284-0C58DE1A48A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3258BB8-F93A-4DD6-9797-0E11F608A12F}">
-  <dimension ref="D5:L7"/>
+  <dimension ref="D5:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -475,21 +475,24 @@
         <v>0.15</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J6">
         <f>SUM(E6:I6)</f>
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
         <v>1.5</v>
       </c>
       <c r="L6">
         <f>K6-J6</f>
-        <v>9.000000000000008E-2</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>45826</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -507,18 +510,18 @@
         <v>0.05</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J7">
         <f>SUM(E7:I7)</f>
-        <v>0.70000000000000007</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
         <f>K7-J7</f>
-        <v>2.2999999999999998</v>
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
